--- a/files/TRACKING.xlsx
+++ b/files/TRACKING.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Assessment all years_ Predicted grades\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BTEC" sheetId="1" r:id="rId1"/>
@@ -43,6 +38,7 @@
     <definedName name="UVL">Lookups!$B$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1:AJ24"/>
 </workbook>
 </file>
 
@@ -2428,6 +2424,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2681,34 +2705,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7058,7 +7054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -9048,7 +9044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="209.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="252.75" x14ac:dyDescent="0.25">
       <c r="A27" s="71" t="s">
         <v>177</v>
       </c>
@@ -11349,11 +11345,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AP21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="between">
       <formula>"Y"</formula>
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
       <formula>"N"</formula>
       <formula>"N"</formula>
     </cfRule>
@@ -16346,14 +16342,14 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="AA2:AA21">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="31" operator="between">
       <formula>$G$2</formula>
       <formula>$G$2+9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>AA2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>AA2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16370,13 +16366,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q29">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="39" priority="34">
       <formula>AND(Q2&gt;=$G2,Q2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>Q2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>Q2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16393,109 +16389,109 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J29">
-    <cfRule type="expression" dxfId="32" priority="27">
+    <cfRule type="expression" dxfId="36" priority="27">
       <formula>AND(J2&gt;=$G2,J2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="35" priority="28">
       <formula>J2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>J2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L29">
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND(L2&gt;=$G2,L2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>L2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>L2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N29">
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>AND(N2&gt;=$G2,N2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="29" priority="22">
       <formula>N2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>N2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S29">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>AND(S2&gt;=$G2,S2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>S2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>S2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U29">
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>AND(U2&gt;=$G2,U2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>U2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>U2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W29">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>AND(W2&gt;=$G2,W2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>W2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>W2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y29">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>AND(Y2&gt;=$G2,Y2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>Y2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>Y2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC29">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>AND(AC2&gt;=$G2,AC2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>AC2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AC2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AA29">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND(AA22&gt;=$G22,AA22&lt;=$G22+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AA22&gt;$G22</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AA22&lt;$G22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AO29">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AG1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
       <formula>"N"</formula>
       <formula>"N"</formula>
     </cfRule>
@@ -16508,7 +16504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -17764,7 +17760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="252.75" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>177</v>
       </c>
@@ -18690,14 +18686,14 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="Z2:Z13">
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="between">
       <formula>$G$2</formula>
       <formula>$G$2+9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="29">
+    <cfRule type="expression" dxfId="6" priority="29">
       <formula>Z2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="30">
+    <cfRule type="expression" dxfId="5" priority="30">
       <formula>Z2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18714,13 +18710,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P13 I2:I13 K2:K13 M2:M13 R2:R13 T2:T13 V2:V13 X2:X13 AB2:AB13">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="4" priority="31">
       <formula>AND(I2&gt;=$G2,I2&lt;=$G2+9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>I2&gt;$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>I2&lt;$G2</formula>
     </cfRule>
   </conditionalFormatting>
